--- a/www/IndicatorsPerCountry/Uzbekistan_CopperProduction_TerritorialRef_1991_2012_CCode_860.xlsx
+++ b/www/IndicatorsPerCountry/Uzbekistan_CopperProduction_TerritorialRef_1991_2012_CCode_860.xlsx
@@ -258,13 +258,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Uzbekistan_CopperProduction_TerritorialRef_1991_2012_CCode_860.xlsx
+++ b/www/IndicatorsPerCountry/Uzbekistan_CopperProduction_TerritorialRef_1991_2012_CCode_860.xlsx
@@ -42,166 +42,166 @@
     <t/>
   </si>
   <si>
-    <t>0.141673931997</t>
-  </si>
-  <si>
-    <t>0.205427201395</t>
-  </si>
-  <si>
-    <t>0.247929380994</t>
-  </si>
-  <si>
-    <t>0.467523975588</t>
-  </si>
-  <si>
-    <t>0.850043591979</t>
-  </si>
-  <si>
-    <t>0.935047951177</t>
-  </si>
-  <si>
-    <t>1.28923278117</t>
-  </si>
-  <si>
-    <t>1.77092414996</t>
-  </si>
-  <si>
-    <t>2.12510897995</t>
-  </si>
-  <si>
-    <t>2.05427201395</t>
-  </si>
-  <si>
-    <t>2.83347863993</t>
-  </si>
-  <si>
-    <t>3.8960331299</t>
-  </si>
-  <si>
-    <t>5.17109851787</t>
-  </si>
-  <si>
-    <t>6.37532693984</t>
-  </si>
-  <si>
-    <t>7.08369659983</t>
-  </si>
-  <si>
-    <t>7.79206625981</t>
-  </si>
-  <si>
-    <t>8.92545771578</t>
-  </si>
-  <si>
-    <t>10.0588491718</t>
-  </si>
-  <si>
-    <t>9.35047951177</t>
-  </si>
-  <si>
-    <t>8.64210985179</t>
-  </si>
-  <si>
-    <t>12.2547951177</t>
-  </si>
-  <si>
-    <t>13.8486268527</t>
-  </si>
-  <si>
-    <t>15.4424585876</t>
-  </si>
-  <si>
-    <t>17.9925893636</t>
-  </si>
-  <si>
-    <t>20.8969049695</t>
-  </si>
-  <si>
-    <t>21.9594594595</t>
-  </si>
-  <si>
-    <t>26.9180470793</t>
-  </si>
-  <si>
-    <t>28.3347863993</t>
-  </si>
-  <si>
-    <t>29.7515257193</t>
-  </si>
-  <si>
-    <t>29.0431560593</t>
-  </si>
-  <si>
-    <t>30.1057105493</t>
-  </si>
-  <si>
-    <t>30.8140802092</t>
-  </si>
-  <si>
-    <t>35.4184829991</t>
-  </si>
-  <si>
-    <t>38.960331299</t>
-  </si>
-  <si>
-    <t>46.0440278989</t>
-  </si>
-  <si>
-    <t>49.5858761988</t>
-  </si>
-  <si>
-    <t>53.1277244987</t>
-  </si>
-  <si>
-    <t>56.6695727986</t>
-  </si>
-  <si>
-    <t>58.4404969486</t>
-  </si>
-  <si>
-    <t>60.2114210985</t>
-  </si>
-  <si>
-    <t>61.9823452485</t>
-  </si>
-  <si>
-    <t>65.5241935484</t>
-  </si>
-  <si>
-    <t>70.1285963383</t>
-  </si>
-  <si>
-    <t>72.9620749782</t>
-  </si>
-  <si>
-    <t>77.9206625981</t>
-  </si>
-  <si>
-    <t>85.0043591979</t>
-  </si>
-  <si>
-    <t>80.045771578</t>
-  </si>
-  <si>
-    <t>61.2739755885</t>
-  </si>
-  <si>
-    <t>62.6907149085</t>
-  </si>
-  <si>
-    <t>63.7532693984</t>
-  </si>
-  <si>
-    <t>67.2951176983</t>
-  </si>
-  <si>
-    <t>71.5453356582</t>
-  </si>
-  <si>
-    <t>72.2537053182</t>
-  </si>
-  <si>
-    <t>59.5030514385</t>
+    <t>0.141673931996513</t>
+  </si>
+  <si>
+    <t>0.205427201394943</t>
+  </si>
+  <si>
+    <t>0.247929380993897</t>
+  </si>
+  <si>
+    <t>0.467523975588492</t>
+  </si>
+  <si>
+    <t>0.850043591979076</t>
+  </si>
+  <si>
+    <t>0.935047951176983</t>
+  </si>
+  <si>
+    <t>1.28923278116826</t>
+  </si>
+  <si>
+    <t>1.77092414995641</t>
+  </si>
+  <si>
+    <t>2.12510897994769</t>
+  </si>
+  <si>
+    <t>2.05427201394943</t>
+  </si>
+  <si>
+    <t>2.83347863993025</t>
+  </si>
+  <si>
+    <t>3.8960331299041</t>
+  </si>
+  <si>
+    <t>5.17109851787271</t>
+  </si>
+  <si>
+    <t>6.37532693984307</t>
+  </si>
+  <si>
+    <t>7.08369659982563</t>
+  </si>
+  <si>
+    <t>7.79206625980819</t>
+  </si>
+  <si>
+    <t>8.9254577157803</t>
+  </si>
+  <si>
+    <t>10.0588491717524</t>
+  </si>
+  <si>
+    <t>9.35047951176983</t>
+  </si>
+  <si>
+    <t>8.64210985178727</t>
+  </si>
+  <si>
+    <t>12.2547951176983</t>
+  </si>
+  <si>
+    <t>13.8486268526591</t>
+  </si>
+  <si>
+    <t>15.4424585876199</t>
+  </si>
+  <si>
+    <t>17.9925893635571</t>
+  </si>
+  <si>
+    <t>20.8969049694856</t>
+  </si>
+  <si>
+    <t>21.9594594594595</t>
+  </si>
+  <si>
+    <t>26.9180470793374</t>
+  </si>
+  <si>
+    <t>28.3347863993025</t>
+  </si>
+  <si>
+    <t>29.7515257192677</t>
+  </si>
+  <si>
+    <t>29.0431560592851</t>
+  </si>
+  <si>
+    <t>30.1057105492589</t>
+  </si>
+  <si>
+    <t>30.8140802092415</t>
+  </si>
+  <si>
+    <t>35.4184829991282</t>
+  </si>
+  <si>
+    <t>38.960331299041</t>
+  </si>
+  <si>
+    <t>46.0440278988666</t>
+  </si>
+  <si>
+    <t>49.5858761987794</t>
+  </si>
+  <si>
+    <t>53.1277244986922</t>
+  </si>
+  <si>
+    <t>56.6695727986051</t>
+  </si>
+  <si>
+    <t>58.4404969485615</t>
+  </si>
+  <si>
+    <t>60.2114210985179</t>
+  </si>
+  <si>
+    <t>61.9823452484743</t>
+  </si>
+  <si>
+    <t>65.5241935483871</t>
+  </si>
+  <si>
+    <t>70.1285963382738</t>
+  </si>
+  <si>
+    <t>72.962074978204</t>
+  </si>
+  <si>
+    <t>77.9206625980819</t>
+  </si>
+  <si>
+    <t>85.0043591979076</t>
+  </si>
+  <si>
+    <t>80.0457715780296</t>
+  </si>
+  <si>
+    <t>61.2739755884917</t>
+  </si>
+  <si>
+    <t>62.6907149084568</t>
+  </si>
+  <si>
+    <t>63.7532693984307</t>
+  </si>
+  <si>
+    <t>67.2951176983435</t>
+  </si>
+  <si>
+    <t>71.5453356582389</t>
+  </si>
+  <si>
+    <t>72.2537053182214</t>
+  </si>
+  <si>
+    <t>59.5030514385353</t>
   </si>
   <si>
     <t>65</t>
